--- a/SylvanExcelTest/TestData/Data_ENG2.xlsx
+++ b/SylvanExcelTest/TestData/Data_ENG2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\source\repos\SylvanExcelTest\SylvanExcelTest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\SylvanExcelTest\SylvanExcelTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB2CAD-8A69-47F2-B822-561A25C06651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97155C-1403-4D7E-89C9-50F739CC53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="27960" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Jones</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Principal Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,9 +443,10 @@
     <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,8 +459,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>34</v>
       </c>
@@ -463,8 +476,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>28</v>
       </c>
@@ -477,8 +493,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>99</v>
       </c>
@@ -492,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>99</v>
       </c>
@@ -503,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>99</v>
       </c>
@@ -514,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
